--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2277,28 +2277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1057.467188447953</v>
+        <v>1243.381772776867</v>
       </c>
       <c r="AB2" t="n">
-        <v>1446.873259394299</v>
+        <v>1701.249795645714</v>
       </c>
       <c r="AC2" t="n">
-        <v>1308.78570621708</v>
+        <v>1538.884902868371</v>
       </c>
       <c r="AD2" t="n">
-        <v>1057467.188447953</v>
+        <v>1243381.772776867</v>
       </c>
       <c r="AE2" t="n">
-        <v>1446873.259394299</v>
+        <v>1701249.795645714</v>
       </c>
       <c r="AF2" t="n">
         <v>4.10290836558003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.25520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1308785.70621708</v>
+        <v>1538884.902868371</v>
       </c>
     </row>
     <row r="3">
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>548.3468840634124</v>
+        <v>665.7418194998883</v>
       </c>
       <c r="AB3" t="n">
-        <v>750.2723981327463</v>
+        <v>910.8973278959612</v>
       </c>
       <c r="AC3" t="n">
-        <v>678.6674534688805</v>
+        <v>823.962565373999</v>
       </c>
       <c r="AD3" t="n">
-        <v>548346.8840634124</v>
+        <v>665741.8194998882</v>
       </c>
       <c r="AE3" t="n">
-        <v>750272.3981327462</v>
+        <v>910897.3278959612</v>
       </c>
       <c r="AF3" t="n">
         <v>6.446187601342291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.34895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>678667.4534688805</v>
+        <v>823962.5653739991</v>
       </c>
     </row>
     <row r="4">
@@ -2489,28 +2489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>449.2848944419488</v>
+        <v>556.8571431892955</v>
       </c>
       <c r="AB4" t="n">
-        <v>614.7314136261185</v>
+        <v>761.9165101149146</v>
       </c>
       <c r="AC4" t="n">
-        <v>556.0623102905989</v>
+        <v>689.2002677460844</v>
       </c>
       <c r="AD4" t="n">
-        <v>449284.8944419489</v>
+        <v>556857.1431892954</v>
       </c>
       <c r="AE4" t="n">
-        <v>614731.4136261186</v>
+        <v>761916.5101149145</v>
       </c>
       <c r="AF4" t="n">
         <v>7.369998921449387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.29557291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>556062.3102905989</v>
+        <v>689200.2677460844</v>
       </c>
     </row>
     <row r="5">
@@ -2595,19 +2595,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>396.5965453179015</v>
+        <v>504.2019484541718</v>
       </c>
       <c r="AB5" t="n">
-        <v>542.6408899086849</v>
+        <v>689.8713496950744</v>
       </c>
       <c r="AC5" t="n">
-        <v>490.8520049770715</v>
+        <v>624.0309963206961</v>
       </c>
       <c r="AD5" t="n">
-        <v>396596.5453179015</v>
+        <v>504201.9484541718</v>
       </c>
       <c r="AE5" t="n">
-        <v>542640.8899086849</v>
+        <v>689871.3496950744</v>
       </c>
       <c r="AF5" t="n">
         <v>7.846369268143443e-06</v>
@@ -2616,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>490852.0049770715</v>
+        <v>624030.9963206961</v>
       </c>
     </row>
     <row r="6">
@@ -2701,28 +2701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>389.5963739245896</v>
+        <v>487.4815866280731</v>
       </c>
       <c r="AB6" t="n">
-        <v>533.0629465825896</v>
+        <v>666.9938129943032</v>
       </c>
       <c r="AC6" t="n">
-        <v>482.1881671192909</v>
+        <v>603.3368596138223</v>
       </c>
       <c r="AD6" t="n">
-        <v>389596.3739245896</v>
+        <v>487481.5866280731</v>
       </c>
       <c r="AE6" t="n">
-        <v>533062.9465825895</v>
+        <v>666993.8129943032</v>
       </c>
       <c r="AF6" t="n">
         <v>7.959917058271428e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.72005208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>482188.1671192909</v>
+        <v>603336.8596138223</v>
       </c>
     </row>
   </sheetData>
@@ -2998,28 +2998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>773.7739281342521</v>
+        <v>928.5953947282775</v>
       </c>
       <c r="AB2" t="n">
-        <v>1058.71162496976</v>
+        <v>1270.545185804758</v>
       </c>
       <c r="AC2" t="n">
-        <v>957.669673393744</v>
+        <v>1149.286136492919</v>
       </c>
       <c r="AD2" t="n">
-        <v>773773.9281342521</v>
+        <v>928595.3947282775</v>
       </c>
       <c r="AE2" t="n">
-        <v>1058711.62496976</v>
+        <v>1270545.185804758</v>
       </c>
       <c r="AF2" t="n">
         <v>5.355075640172593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.0703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>957669.673393744</v>
+        <v>1149286.136492919</v>
       </c>
     </row>
     <row r="3">
@@ -3104,28 +3104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.7242400310686</v>
+        <v>562.1429608745533</v>
       </c>
       <c r="AB3" t="n">
-        <v>623.5420103450299</v>
+        <v>769.1487990657026</v>
       </c>
       <c r="AC3" t="n">
-        <v>564.0320360244074</v>
+        <v>695.7423171899906</v>
       </c>
       <c r="AD3" t="n">
-        <v>455724.2400310686</v>
+        <v>562142.9608745533</v>
       </c>
       <c r="AE3" t="n">
-        <v>623542.0103450299</v>
+        <v>769148.7990657026</v>
       </c>
       <c r="AF3" t="n">
         <v>7.679538796726502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.36328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>564032.0360244074</v>
+        <v>695742.3171899905</v>
       </c>
     </row>
     <row r="4">
@@ -3210,28 +3210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>386.113673123692</v>
+        <v>482.8518448170688</v>
       </c>
       <c r="AB4" t="n">
-        <v>528.297761700886</v>
+        <v>660.6591959986938</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.8777647947181</v>
+        <v>597.6068095735828</v>
       </c>
       <c r="AD4" t="n">
-        <v>386113.673123692</v>
+        <v>482851.8448170688</v>
       </c>
       <c r="AE4" t="n">
-        <v>528297.761700886</v>
+        <v>660659.1959986938</v>
       </c>
       <c r="AF4" t="n">
         <v>8.53736382908162e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.1171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>477877.7647947181</v>
+        <v>597606.8095735828</v>
       </c>
     </row>
     <row r="5">
@@ -3316,28 +3316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.8748634871729</v>
+        <v>479.2925733008007</v>
       </c>
       <c r="AB5" t="n">
-        <v>510.1838383011399</v>
+        <v>655.7892436861584</v>
       </c>
       <c r="AC5" t="n">
-        <v>461.4926088211926</v>
+        <v>593.2016386747349</v>
       </c>
       <c r="AD5" t="n">
-        <v>372874.8634871729</v>
+        <v>479292.5733008006</v>
       </c>
       <c r="AE5" t="n">
-        <v>510183.8383011399</v>
+        <v>655789.2436861584</v>
       </c>
       <c r="AF5" t="n">
         <v>8.609113032279835e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>461492.6088211926</v>
+        <v>593201.6386747349</v>
       </c>
     </row>
   </sheetData>
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.2520642474842</v>
+        <v>473.0950435767715</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.5952086716616</v>
+        <v>647.309510102027</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.2464729668784</v>
+        <v>585.5311989624923</v>
       </c>
       <c r="AD2" t="n">
-        <v>370252.0642474842</v>
+        <v>473095.0435767715</v>
       </c>
       <c r="AE2" t="n">
-        <v>506595.2086716616</v>
+        <v>647309.5101020271</v>
       </c>
       <c r="AF2" t="n">
         <v>1.082022212345008e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.15494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>458246.4729668784</v>
+        <v>585531.1989624923</v>
       </c>
     </row>
     <row r="3">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.1495016644596</v>
+        <v>469.3469517036162</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.6677045013026</v>
+        <v>642.1812054470328</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.0299446331283</v>
+        <v>580.8923325061497</v>
       </c>
       <c r="AD3" t="n">
-        <v>357149.5016644596</v>
+        <v>469346.9517036162</v>
       </c>
       <c r="AE3" t="n">
-        <v>488667.7045013026</v>
+        <v>642181.2054470328</v>
       </c>
       <c r="AF3" t="n">
         <v>1.096455066137006e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.86197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>442029.9446331282</v>
+        <v>580892.3325061498</v>
       </c>
     </row>
   </sheetData>
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.240853434787</v>
+        <v>595.4800996862317</v>
       </c>
       <c r="AB2" t="n">
-        <v>646.1407694655545</v>
+        <v>814.7621431186064</v>
       </c>
       <c r="AC2" t="n">
-        <v>584.4740012920269</v>
+        <v>737.0023877052156</v>
       </c>
       <c r="AD2" t="n">
-        <v>472240.853434787</v>
+        <v>595480.0996862317</v>
       </c>
       <c r="AE2" t="n">
-        <v>646140.7694655545</v>
+        <v>814762.1431186064</v>
       </c>
       <c r="AF2" t="n">
         <v>8.316192626789007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>584474.0012920268</v>
+        <v>737002.3877052156</v>
       </c>
     </row>
     <row r="3">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.3928931370311</v>
+        <v>461.6669991315181</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.0007234517489</v>
+        <v>631.6731555222931</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.331180722339</v>
+        <v>571.3871561180865</v>
       </c>
       <c r="AD3" t="n">
-        <v>357392.8931370311</v>
+        <v>461666.9991315181</v>
       </c>
       <c r="AE3" t="n">
-        <v>489000.7234517488</v>
+        <v>631673.1555222931</v>
       </c>
       <c r="AF3" t="n">
         <v>1.00041737542417e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.74869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>442331.180722339</v>
+        <v>571387.1561180865</v>
       </c>
     </row>
   </sheetData>
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.8386518439975</v>
+        <v>479.7520849116384</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.6613154658568</v>
+        <v>656.4179677443282</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.4971478143995</v>
+        <v>593.7703581912127</v>
       </c>
       <c r="AD2" t="n">
-        <v>368838.6518439975</v>
+        <v>479752.0849116384</v>
       </c>
       <c r="AE2" t="n">
-        <v>504661.3154658568</v>
+        <v>656417.9677443282</v>
       </c>
       <c r="AF2" t="n">
         <v>1.17828802915882e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.30078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>456497.1478143994</v>
+        <v>593770.3581912128</v>
       </c>
     </row>
   </sheetData>
@@ -4716,28 +4716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>832.5817229001117</v>
+        <v>997.5320255536815</v>
       </c>
       <c r="AB2" t="n">
-        <v>1139.17504418521</v>
+        <v>1364.867325369586</v>
       </c>
       <c r="AC2" t="n">
-        <v>1030.453776810389</v>
+        <v>1234.606303439634</v>
       </c>
       <c r="AD2" t="n">
-        <v>832581.7229001117</v>
+        <v>997532.0255536814</v>
       </c>
       <c r="AE2" t="n">
-        <v>1139175.04418521</v>
+        <v>1364867.325369586</v>
       </c>
       <c r="AF2" t="n">
         <v>5.003307111432167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.49609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1030453.776810389</v>
+        <v>1234606.303439634</v>
       </c>
     </row>
     <row r="3">
@@ -4822,28 +4822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>473.1742939964905</v>
+        <v>589.6472729636307</v>
       </c>
       <c r="AB3" t="n">
-        <v>647.4179440225682</v>
+        <v>806.7814122705898</v>
       </c>
       <c r="AC3" t="n">
-        <v>585.629284101845</v>
+        <v>729.7833266083078</v>
       </c>
       <c r="AD3" t="n">
-        <v>473174.2939964905</v>
+        <v>589647.2729636307</v>
       </c>
       <c r="AE3" t="n">
-        <v>647417.9440225683</v>
+        <v>806781.4122705898</v>
       </c>
       <c r="AF3" t="n">
         <v>7.336484847606533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.84505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>585629.284101845</v>
+        <v>729783.3266083078</v>
       </c>
     </row>
     <row r="4">
@@ -4928,28 +4928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>397.8265996988907</v>
+        <v>494.848566879454</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.3239045789237</v>
+        <v>677.0736403824734</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.3743950893086</v>
+        <v>612.4546824231918</v>
       </c>
       <c r="AD4" t="n">
-        <v>397826.5996988907</v>
+        <v>494848.566879454</v>
       </c>
       <c r="AE4" t="n">
-        <v>544323.9045789237</v>
+        <v>677073.6403824734</v>
       </c>
       <c r="AF4" t="n">
         <v>8.237939882037539e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.34505208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>492374.3950893086</v>
+        <v>612454.6824231918</v>
       </c>
     </row>
     <row r="5">
@@ -5034,28 +5034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>377.270191739222</v>
+        <v>484.0000765887549</v>
       </c>
       <c r="AB5" t="n">
-        <v>516.1977203237905</v>
+        <v>662.2302573651252</v>
       </c>
       <c r="AC5" t="n">
-        <v>466.9325343841379</v>
+        <v>599.0279310482005</v>
       </c>
       <c r="AD5" t="n">
-        <v>377270.191739222</v>
+        <v>484000.0765887549</v>
       </c>
       <c r="AE5" t="n">
-        <v>516197.7203237904</v>
+        <v>662230.2573651252</v>
       </c>
       <c r="AF5" t="n">
         <v>8.422503919640917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>466932.5343841378</v>
+        <v>599027.9310482005</v>
       </c>
     </row>
   </sheetData>
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.9235601679505</v>
+        <v>496.35313346984</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.723443715671</v>
+        <v>679.1322547682329</v>
       </c>
       <c r="AC2" t="n">
-        <v>466.5035220698459</v>
+        <v>614.316825541258</v>
       </c>
       <c r="AD2" t="n">
-        <v>376923.5601679505</v>
+        <v>496353.13346984</v>
       </c>
       <c r="AE2" t="n">
-        <v>515723.443715671</v>
+        <v>679132.2547682329</v>
       </c>
       <c r="AF2" t="n">
         <v>1.221157883834501e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.60286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>466503.5220698459</v>
+        <v>614316.825541258</v>
       </c>
     </row>
   </sheetData>
@@ -5628,28 +5628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>611.9062950110631</v>
+        <v>746.0771881736614</v>
       </c>
       <c r="AB2" t="n">
-        <v>837.2371882346333</v>
+        <v>1020.81572346175</v>
       </c>
       <c r="AC2" t="n">
-        <v>757.3324460592931</v>
+        <v>923.3905035384265</v>
       </c>
       <c r="AD2" t="n">
-        <v>611906.2950110631</v>
+        <v>746077.1881736614</v>
       </c>
       <c r="AE2" t="n">
-        <v>837237.1882346333</v>
+        <v>1020815.72346175</v>
       </c>
       <c r="AF2" t="n">
         <v>6.59591190155281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.31380208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>757332.4460592931</v>
+        <v>923390.5035384265</v>
       </c>
     </row>
     <row r="3">
@@ -5734,28 +5734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.8688625158707</v>
+        <v>490.3075787166134</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.5945569100965</v>
+        <v>670.8604600438159</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.3371114786986</v>
+        <v>606.8344792958027</v>
       </c>
       <c r="AD3" t="n">
-        <v>384868.8625158707</v>
+        <v>490307.5787166134</v>
       </c>
       <c r="AE3" t="n">
-        <v>526594.5569100964</v>
+        <v>670860.4600438159</v>
       </c>
       <c r="AF3" t="n">
         <v>8.910906029115549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.95703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>476337.1114786986</v>
+        <v>606834.4792958027</v>
       </c>
     </row>
     <row r="4">
@@ -5840,28 +5840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.7121932265539</v>
+        <v>466.5293112547799</v>
       </c>
       <c r="AB4" t="n">
-        <v>507.2247774402827</v>
+        <v>638.3259854794114</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.8159565758276</v>
+        <v>577.405049321403</v>
       </c>
       <c r="AD4" t="n">
-        <v>370712.1932265539</v>
+        <v>466529.3112547799</v>
       </c>
       <c r="AE4" t="n">
-        <v>507224.7774402826</v>
+        <v>638325.9854794114</v>
       </c>
       <c r="AF4" t="n">
         <v>9.207200036521361e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.27994791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>458815.9565758276</v>
+        <v>577405.049321403</v>
       </c>
     </row>
   </sheetData>
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>709.9242322933313</v>
+        <v>864.3075138094298</v>
       </c>
       <c r="AB2" t="n">
-        <v>971.3496542704357</v>
+        <v>1182.583670950452</v>
       </c>
       <c r="AC2" t="n">
-        <v>878.6454065646668</v>
+        <v>1069.719545161547</v>
       </c>
       <c r="AD2" t="n">
-        <v>709924.2322933313</v>
+        <v>864307.5138094298</v>
       </c>
       <c r="AE2" t="n">
-        <v>971349.6542704357</v>
+        <v>1182583.670950452</v>
       </c>
       <c r="AF2" t="n">
         <v>5.731858241502566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.74869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>878645.4065646668</v>
+        <v>1069719.545161547</v>
       </c>
     </row>
     <row r="3">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>428.3203045600766</v>
+        <v>544.0650589236744</v>
       </c>
       <c r="AB3" t="n">
-        <v>586.046736857311</v>
+        <v>744.4138160757634</v>
       </c>
       <c r="AC3" t="n">
-        <v>530.1152588134096</v>
+        <v>673.3680062608446</v>
       </c>
       <c r="AD3" t="n">
-        <v>428320.3045600766</v>
+        <v>544065.0589236744</v>
       </c>
       <c r="AE3" t="n">
-        <v>586046.736857311</v>
+        <v>744413.8160757634</v>
       </c>
       <c r="AF3" t="n">
         <v>8.061043280076396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.86848958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>530115.2588134096</v>
+        <v>673368.0062608446</v>
       </c>
     </row>
     <row r="4">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.6677520826594</v>
+        <v>474.1113366092545</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.741679924806</v>
+        <v>648.7000470647547</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.4245792442845</v>
+        <v>586.7890250291279</v>
       </c>
       <c r="AD4" t="n">
-        <v>377667.7520826594</v>
+        <v>474111.3366092545</v>
       </c>
       <c r="AE4" t="n">
-        <v>516741.679924806</v>
+        <v>648700.0470647546</v>
       </c>
       <c r="AF4" t="n">
         <v>8.80314442976033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>467424.5792442845</v>
+        <v>586789.0250291278</v>
       </c>
     </row>
     <row r="5">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.6024409019312</v>
+        <v>475.0460254285263</v>
       </c>
       <c r="AB5" t="n">
-        <v>518.0205624028941</v>
+        <v>649.9789295428428</v>
       </c>
       <c r="AC5" t="n">
-        <v>468.5814069735868</v>
+        <v>587.9458527584301</v>
       </c>
       <c r="AD5" t="n">
-        <v>378602.4409019313</v>
+        <v>475046.0254285263</v>
       </c>
       <c r="AE5" t="n">
-        <v>518020.5624028942</v>
+        <v>649978.9295428428</v>
       </c>
       <c r="AF5" t="n">
         <v>8.800978501559866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>468581.4069735868</v>
+        <v>587945.8527584301</v>
       </c>
     </row>
   </sheetData>
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>971.3390758313628</v>
+        <v>1156.798774971235</v>
       </c>
       <c r="AB2" t="n">
-        <v>1329.028976008122</v>
+        <v>1582.783118275771</v>
       </c>
       <c r="AC2" t="n">
-        <v>1202.188315841789</v>
+        <v>1431.724518917589</v>
       </c>
       <c r="AD2" t="n">
-        <v>971339.0758313629</v>
+        <v>1156798.774971235</v>
       </c>
       <c r="AE2" t="n">
-        <v>1329028.976008122</v>
+        <v>1582783.118275771</v>
       </c>
       <c r="AF2" t="n">
         <v>4.389514398536166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.50390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1202188.315841789</v>
+        <v>1431724.518917589</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>519.1179975664088</v>
+        <v>645.9665214268728</v>
       </c>
       <c r="AB3" t="n">
-        <v>710.2801461400812</v>
+        <v>883.8398926478833</v>
       </c>
       <c r="AC3" t="n">
-        <v>642.4920058769172</v>
+        <v>799.4874537706489</v>
       </c>
       <c r="AD3" t="n">
-        <v>519117.9975664088</v>
+        <v>645966.5214268728</v>
       </c>
       <c r="AE3" t="n">
-        <v>710280.1461400812</v>
+        <v>883839.8926478833</v>
       </c>
       <c r="AF3" t="n">
         <v>6.728619800481091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.81510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>642492.0058769173</v>
+        <v>799487.4537706489</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.0457757457922</v>
+        <v>533.4027950714946</v>
       </c>
       <c r="AB4" t="n">
-        <v>582.9346261884779</v>
+        <v>729.825236287328</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.300163618935</v>
+        <v>660.1717400522172</v>
       </c>
       <c r="AD4" t="n">
-        <v>426045.7757457922</v>
+        <v>533402.7950714945</v>
       </c>
       <c r="AE4" t="n">
-        <v>582934.6261884779</v>
+        <v>729825.2362873281</v>
       </c>
       <c r="AF4" t="n">
         <v>7.63384177737013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.98958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>527300.163618935</v>
+        <v>660171.7400522172</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.0378995985214</v>
+        <v>494.360753505443</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.5623291377418</v>
+        <v>676.4061926033443</v>
       </c>
       <c r="AC5" t="n">
-        <v>479.021643690232</v>
+        <v>611.8509349233342</v>
       </c>
       <c r="AD5" t="n">
-        <v>387037.8995985215</v>
+        <v>494360.753505443</v>
       </c>
       <c r="AE5" t="n">
-        <v>529562.3291377418</v>
+        <v>676406.1926033442</v>
       </c>
       <c r="AF5" t="n">
         <v>8.07316239421269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.85026041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>479021.643690232</v>
+        <v>611850.9349233342</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>386.0433847469973</v>
+        <v>483.6717345147093</v>
       </c>
       <c r="AB6" t="n">
-        <v>528.2015900429878</v>
+        <v>661.781005253986</v>
       </c>
       <c r="AC6" t="n">
-        <v>477.790771624872</v>
+        <v>598.6215549280195</v>
       </c>
       <c r="AD6" t="n">
-        <v>386043.3847469973</v>
+        <v>483671.7345147093</v>
       </c>
       <c r="AE6" t="n">
-        <v>528201.5900429878</v>
+        <v>661781.005253986</v>
       </c>
       <c r="AF6" t="n">
         <v>8.096789721505063e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>477790.771624872</v>
+        <v>598621.5549280194</v>
       </c>
     </row>
   </sheetData>
@@ -7473,28 +7473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>523.4787939673178</v>
+        <v>647.1681200192921</v>
       </c>
       <c r="AB2" t="n">
-        <v>716.246780160564</v>
+        <v>885.4839728528201</v>
       </c>
       <c r="AC2" t="n">
-        <v>647.8891927207087</v>
+        <v>800.9746252683075</v>
       </c>
       <c r="AD2" t="n">
-        <v>523478.7939673178</v>
+        <v>647168.1200192921</v>
       </c>
       <c r="AE2" t="n">
-        <v>716246.780160564</v>
+        <v>885483.9728528201</v>
       </c>
       <c r="AF2" t="n">
         <v>7.668720865444719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.04817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>647889.1927207087</v>
+        <v>800974.6252683075</v>
       </c>
     </row>
     <row r="3">
@@ -7579,28 +7579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>361.521368411775</v>
+        <v>466.2043648742609</v>
       </c>
       <c r="AB3" t="n">
-        <v>494.6494854581279</v>
+        <v>637.8813795059626</v>
       </c>
       <c r="AC3" t="n">
-        <v>447.4408328109166</v>
+        <v>577.0028759180517</v>
       </c>
       <c r="AD3" t="n">
-        <v>361521.368411775</v>
+        <v>466204.3648742608</v>
       </c>
       <c r="AE3" t="n">
-        <v>494649.4854581279</v>
+        <v>637881.3795059626</v>
       </c>
       <c r="AF3" t="n">
         <v>9.715226753758564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.55989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>447440.8328109166</v>
+        <v>577002.8759180517</v>
       </c>
     </row>
     <row r="4">
@@ -7685,28 +7685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>362.6664745473834</v>
+        <v>467.3494710098694</v>
       </c>
       <c r="AB4" t="n">
-        <v>496.2162701913847</v>
+        <v>639.4481642392194</v>
       </c>
       <c r="AC4" t="n">
-        <v>448.8580858082275</v>
+        <v>578.4201289153626</v>
       </c>
       <c r="AD4" t="n">
-        <v>362666.4745473834</v>
+        <v>467349.4710098694</v>
       </c>
       <c r="AE4" t="n">
-        <v>496216.2701913847</v>
+        <v>639448.1642392194</v>
       </c>
       <c r="AF4" t="n">
         <v>9.706328902070245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.57942708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>448858.0858082275</v>
+        <v>578420.1289153626</v>
       </c>
     </row>
   </sheetData>
@@ -7982,28 +7982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.5388612255963</v>
+        <v>506.3158962305773</v>
       </c>
       <c r="AB2" t="n">
-        <v>538.457231638091</v>
+        <v>692.7637463035462</v>
       </c>
       <c r="AC2" t="n">
-        <v>487.0676291800219</v>
+        <v>626.6473466563596</v>
       </c>
       <c r="AD2" t="n">
-        <v>393538.8612255963</v>
+        <v>506315.8962305773</v>
       </c>
       <c r="AE2" t="n">
-        <v>538457.231638091</v>
+        <v>692763.7463035462</v>
       </c>
       <c r="AF2" t="n">
         <v>9.933613926249598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>487067.6291800219</v>
+        <v>626647.3466563596</v>
       </c>
     </row>
     <row r="3">
@@ -8088,28 +8088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.0270483766386</v>
+        <v>463.3358302052683</v>
       </c>
       <c r="AB3" t="n">
-        <v>492.6048908613072</v>
+        <v>633.956523821029</v>
       </c>
       <c r="AC3" t="n">
-        <v>445.5913714528099</v>
+        <v>573.4526029511185</v>
       </c>
       <c r="AD3" t="n">
-        <v>360027.0483766386</v>
+        <v>463335.8302052683</v>
       </c>
       <c r="AE3" t="n">
-        <v>492604.8908613072</v>
+        <v>633956.523821029</v>
       </c>
       <c r="AF3" t="n">
         <v>1.062474198398501e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.38020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>445591.3714528099</v>
+        <v>573452.6029511185</v>
       </c>
     </row>
   </sheetData>
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.1252605819905</v>
+        <v>473.6612189485521</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.4757573672591</v>
+        <v>648.084176223592</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.1882464887202</v>
+        <v>586.2319320366656</v>
       </c>
       <c r="AD2" t="n">
-        <v>362125.2605819905</v>
+        <v>473661.2189485521</v>
       </c>
       <c r="AE2" t="n">
-        <v>495475.7573672591</v>
+        <v>648084.1762235919</v>
       </c>
       <c r="AF2" t="n">
         <v>1.136196273220817e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>448188.2464887202</v>
+        <v>586231.9320366656</v>
       </c>
     </row>
     <row r="3">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.4802647850424</v>
+        <v>475.0162231516039</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.3297338964412</v>
+        <v>649.9381527527739</v>
       </c>
       <c r="AC3" t="n">
-        <v>449.8652821000294</v>
+        <v>587.9089676479749</v>
       </c>
       <c r="AD3" t="n">
-        <v>363480.2647850424</v>
+        <v>475016.2231516039</v>
       </c>
       <c r="AE3" t="n">
-        <v>497329.7338964412</v>
+        <v>649938.152752774</v>
       </c>
       <c r="AF3" t="n">
         <v>1.1359220094906e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.45442708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>449865.2821000295</v>
+        <v>587908.967647975</v>
       </c>
     </row>
   </sheetData>
@@ -14393,28 +14393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.7699446602271</v>
+        <v>525.3837955720915</v>
       </c>
       <c r="AB2" t="n">
-        <v>544.2463866555802</v>
+        <v>718.853287398955</v>
       </c>
       <c r="AC2" t="n">
-        <v>492.3042753677719</v>
+        <v>650.2469385665235</v>
       </c>
       <c r="AD2" t="n">
-        <v>397769.944660227</v>
+        <v>525383.7955720915</v>
       </c>
       <c r="AE2" t="n">
-        <v>544246.3866555801</v>
+        <v>718853.287398955</v>
       </c>
       <c r="AF2" t="n">
         <v>1.250931344320552e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.96614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>492304.2753677719</v>
+        <v>650246.9385665235</v>
       </c>
     </row>
   </sheetData>
@@ -14690,28 +14690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>661.1366768490896</v>
+        <v>805.4432047323473</v>
       </c>
       <c r="AB2" t="n">
-        <v>904.5963685565836</v>
+        <v>1102.042926361152</v>
       </c>
       <c r="AC2" t="n">
-        <v>818.2629607505195</v>
+        <v>996.8654961962048</v>
       </c>
       <c r="AD2" t="n">
-        <v>661136.6768490896</v>
+        <v>805443.2047323474</v>
       </c>
       <c r="AE2" t="n">
-        <v>904596.3685565835</v>
+        <v>1102042.926361152</v>
       </c>
       <c r="AF2" t="n">
         <v>6.129402512967148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.5703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>818262.9607505195</v>
+        <v>996865.4961962048</v>
       </c>
     </row>
     <row r="3">
@@ -14796,28 +14796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.771403256115</v>
+        <v>517.4947051440189</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.4038000072322</v>
+        <v>708.05908583316</v>
       </c>
       <c r="AC3" t="n">
-        <v>509.6333320767409</v>
+        <v>640.4829204484108</v>
       </c>
       <c r="AD3" t="n">
-        <v>411771.403256115</v>
+        <v>517494.7051440189</v>
       </c>
       <c r="AE3" t="n">
-        <v>563403.8000072322</v>
+        <v>708059.08583316</v>
       </c>
       <c r="AF3" t="n">
         <v>8.457506483170812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>509633.3320767409</v>
+        <v>640482.9204484108</v>
       </c>
     </row>
     <row r="4">
@@ -14902,28 +14902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>374.5951910724713</v>
+        <v>470.7322231869389</v>
       </c>
       <c r="AB4" t="n">
-        <v>512.5376663988417</v>
+        <v>644.0765950043794</v>
       </c>
       <c r="AC4" t="n">
-        <v>463.6217908688682</v>
+        <v>582.6068287443392</v>
       </c>
       <c r="AD4" t="n">
-        <v>374595.1910724713</v>
+        <v>470732.2231869389</v>
       </c>
       <c r="AE4" t="n">
-        <v>512537.6663988417</v>
+        <v>644076.5950043794</v>
       </c>
       <c r="AF4" t="n">
         <v>8.992833989412787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>463621.7908688682</v>
+        <v>582606.8287443392</v>
       </c>
     </row>
     <row r="5">
@@ -15008,28 +15008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>375.3784957423698</v>
+        <v>471.5155278568374</v>
       </c>
       <c r="AB5" t="n">
-        <v>513.60941840516</v>
+        <v>645.1483470106976</v>
       </c>
       <c r="AC5" t="n">
-        <v>464.5912563679168</v>
+        <v>583.5762942433879</v>
       </c>
       <c r="AD5" t="n">
-        <v>375378.4957423698</v>
+        <v>471515.5278568374</v>
       </c>
       <c r="AE5" t="n">
-        <v>513609.41840516</v>
+        <v>645148.3470106977</v>
       </c>
       <c r="AF5" t="n">
         <v>8.993947515166799e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.14973958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>464591.2563679168</v>
+        <v>583576.2942433879</v>
       </c>
     </row>
   </sheetData>
@@ -15305,28 +15305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>906.7552025344523</v>
+        <v>1081.907635581246</v>
       </c>
       <c r="AB2" t="n">
-        <v>1240.662471323889</v>
+        <v>1480.313757398501</v>
       </c>
       <c r="AC2" t="n">
-        <v>1122.255386341451</v>
+        <v>1339.034690025794</v>
       </c>
       <c r="AD2" t="n">
-        <v>906755.2025344523</v>
+        <v>1081907.635581246</v>
       </c>
       <c r="AE2" t="n">
-        <v>1240662.471323889</v>
+        <v>1480313.757398501</v>
       </c>
       <c r="AF2" t="n">
         <v>4.675206736165027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.02604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1122255.386341451</v>
+        <v>1339034.690025794</v>
       </c>
     </row>
     <row r="3">
@@ -15411,28 +15411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>501.2429767823623</v>
+        <v>617.9774370713961</v>
       </c>
       <c r="AB3" t="n">
-        <v>685.8227541130876</v>
+        <v>845.5439926414657</v>
       </c>
       <c r="AC3" t="n">
-        <v>620.3687930188148</v>
+        <v>764.8464607122105</v>
       </c>
       <c r="AD3" t="n">
-        <v>501242.9767823623</v>
+        <v>617977.4370713962</v>
       </c>
       <c r="AE3" t="n">
-        <v>685822.7541130877</v>
+        <v>845543.9926414657</v>
       </c>
       <c r="AF3" t="n">
         <v>7.015325549602197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.34635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>620368.7930188148</v>
+        <v>764846.4607122105</v>
       </c>
     </row>
     <row r="4">
@@ -15517,28 +15517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>412.203988074751</v>
+        <v>519.2694393785293</v>
       </c>
       <c r="AB4" t="n">
-        <v>563.9956816403852</v>
+        <v>710.4873555085657</v>
       </c>
       <c r="AC4" t="n">
-        <v>510.1687253575369</v>
+        <v>642.6794394740938</v>
       </c>
       <c r="AD4" t="n">
-        <v>412203.9880747509</v>
+        <v>519269.4393785293</v>
       </c>
       <c r="AE4" t="n">
-        <v>563995.6816403852</v>
+        <v>710487.3555085657</v>
       </c>
       <c r="AF4" t="n">
         <v>7.925665223452474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.6640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>510168.7253575369</v>
+        <v>642679.4394740937</v>
       </c>
     </row>
     <row r="5">
@@ -15623,28 +15623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.1585935745982</v>
+        <v>488.1898794595957</v>
       </c>
       <c r="AB5" t="n">
-        <v>521.5180032591342</v>
+        <v>667.9629304940668</v>
       </c>
       <c r="AC5" t="n">
-        <v>471.7450569831963</v>
+        <v>604.2134858995735</v>
       </c>
       <c r="AD5" t="n">
-        <v>381158.5935745982</v>
+        <v>488189.8794595957</v>
       </c>
       <c r="AE5" t="n">
-        <v>521518.0032591341</v>
+        <v>667962.9304940668</v>
       </c>
       <c r="AF5" t="n">
         <v>8.253427753164248e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH5" t="n">
-        <v>471745.0569831963</v>
+        <v>604213.4858995734</v>
       </c>
     </row>
     <row r="6">
@@ -15729,28 +15729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>382.228460828573</v>
+        <v>489.2597467135706</v>
       </c>
       <c r="AB6" t="n">
-        <v>522.9818428352346</v>
+        <v>669.4267700701673</v>
       </c>
       <c r="AC6" t="n">
-        <v>473.0691897646656</v>
+        <v>605.5376186810427</v>
       </c>
       <c r="AD6" t="n">
-        <v>382228.460828573</v>
+        <v>489259.7467135706</v>
       </c>
       <c r="AE6" t="n">
-        <v>522981.8428352347</v>
+        <v>669426.7700701674</v>
       </c>
       <c r="AF6" t="n">
         <v>8.246636050706674e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.85677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>473069.1897646656</v>
+        <v>605537.6186810427</v>
       </c>
     </row>
   </sheetData>
@@ -16026,28 +16026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>462.7672428421105</v>
+        <v>607.1746327582006</v>
       </c>
       <c r="AB2" t="n">
-        <v>633.1785575064523</v>
+        <v>830.7631191940608</v>
       </c>
       <c r="AC2" t="n">
-        <v>572.7488846497228</v>
+        <v>751.4762530815398</v>
       </c>
       <c r="AD2" t="n">
-        <v>462767.2428421105</v>
+        <v>607174.6327582005</v>
       </c>
       <c r="AE2" t="n">
-        <v>633178.5575064523</v>
+        <v>830763.1191940608</v>
       </c>
       <c r="AF2" t="n">
         <v>1.240079400670077e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.03776041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>572748.8846497227</v>
+        <v>751476.2530815398</v>
       </c>
     </row>
   </sheetData>
@@ -16323,28 +16323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.9821275046608</v>
+        <v>555.6741988537881</v>
       </c>
       <c r="AB2" t="n">
-        <v>592.4252486752043</v>
+        <v>760.2979534872524</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.8850144157008</v>
+        <v>687.736183891308</v>
       </c>
       <c r="AD2" t="n">
-        <v>432982.1275046608</v>
+        <v>555674.1988537881</v>
       </c>
       <c r="AE2" t="n">
-        <v>592425.2486752043</v>
+        <v>760297.9534872524</v>
       </c>
       <c r="AF2" t="n">
         <v>9.047858294264106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.93880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>535885.0144157008</v>
+        <v>687736.183891308</v>
       </c>
     </row>
     <row r="3">
@@ -16429,28 +16429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.7788008769207</v>
+        <v>458.1767250931425</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.7382041478321</v>
+        <v>626.8976086029643</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.2347685239193</v>
+        <v>567.0673806942164</v>
       </c>
       <c r="AD3" t="n">
-        <v>363778.8008769208</v>
+        <v>458176.7250931425</v>
       </c>
       <c r="AE3" t="n">
-        <v>497738.2041478321</v>
+        <v>626897.6086029643</v>
       </c>
       <c r="AF3" t="n">
         <v>1.028846219113537e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.0546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>450234.7685239193</v>
+        <v>567067.3806942164</v>
       </c>
     </row>
   </sheetData>
@@ -16726,28 +16726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.4947965681445</v>
+        <v>701.1625826293698</v>
       </c>
       <c r="AB2" t="n">
-        <v>776.4714167680012</v>
+        <v>959.3615786635007</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.3660745361403</v>
+        <v>867.8014560682878</v>
       </c>
       <c r="AD2" t="n">
-        <v>567494.7965681445</v>
+        <v>701162.5826293698</v>
       </c>
       <c r="AE2" t="n">
-        <v>776471.4167680012</v>
+        <v>959361.5786635007</v>
       </c>
       <c r="AF2" t="n">
         <v>7.091405676236505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.20052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>702366.0745361403</v>
+        <v>867801.4560682878</v>
       </c>
     </row>
     <row r="3">
@@ -16832,28 +16832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.3329640587101</v>
+        <v>475.4032260802734</v>
       </c>
       <c r="AB3" t="n">
-        <v>506.7058993624287</v>
+        <v>650.4676672331437</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.346599493474</v>
+        <v>588.3879460095164</v>
       </c>
       <c r="AD3" t="n">
-        <v>370332.9640587101</v>
+        <v>475403.2260802734</v>
       </c>
       <c r="AE3" t="n">
-        <v>506705.8993624287</v>
+        <v>650467.6672331437</v>
       </c>
       <c r="AF3" t="n">
         <v>9.352609599985909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>458346.599493474</v>
+        <v>588387.9460095165</v>
       </c>
     </row>
     <row r="4">
@@ -16938,28 +16938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.5136493001834</v>
+        <v>461.995808983701</v>
       </c>
       <c r="AB4" t="n">
-        <v>501.4801444135372</v>
+        <v>632.1230476681164</v>
       </c>
       <c r="AC4" t="n">
-        <v>453.6195832625116</v>
+        <v>571.7941111889402</v>
       </c>
       <c r="AD4" t="n">
-        <v>366513.6493001834</v>
+        <v>461995.8089837009</v>
       </c>
       <c r="AE4" t="n">
-        <v>501480.1444135372</v>
+        <v>632123.0476681164</v>
       </c>
       <c r="AF4" t="n">
         <v>9.454812580949296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.39713541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>453619.5832625116</v>
+        <v>571794.1111889401</v>
       </c>
     </row>
   </sheetData>
